--- a/data/Respuestas_final.xlsx
+++ b/data/Respuestas_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josev\OneDrive\Documentos\Estadistica-final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5076688A-E64B-42E1-A3F8-936D95FC2C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1888D41-F217-419F-A92E-57B4120BA974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="83">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -221,6 +221,54 @@
   </si>
   <si>
     <t xml:space="preserve">Jenny Lucía García Duque </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La bestia </t>
+  </si>
+  <si>
+    <t>Juan Felipe Zuluaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilson Rincón </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simón </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esteban </t>
+  </si>
+  <si>
+    <t>Juan Andrés Giraldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gladis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leny Valencia </t>
+  </si>
+  <si>
+    <t>Carlos Mario Valencia vargas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela Patricia Restrepo Cardona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana Isabel Valencia Vargas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela Patricia Restrepo </t>
+  </si>
+  <si>
+    <t>Ángela Valencia vargas</t>
+  </si>
+  <si>
+    <t>Alejandro garzon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nelson Molina </t>
   </si>
 </sst>
 </file>
@@ -341,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:G60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:G77">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Marca temporal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Cómo te llamas?"/>
@@ -556,11 +604,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1950,6 +1998,397 @@
         <v>10</v>
       </c>
     </row>
+    <row r="61" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>45974.11760946759</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="3">
+        <v>19</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7</v>
+      </c>
+      <c r="F61" s="3">
+        <v>9</v>
+      </c>
+      <c r="G61" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>45974.215739189814</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="3">
+        <v>21</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3">
+        <v>10</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>45974.230108703705</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="3">
+        <v>22</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="3">
+        <v>10</v>
+      </c>
+      <c r="F63" s="3">
+        <v>8</v>
+      </c>
+      <c r="G63" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>45974.268689976852</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="3">
+        <v>22</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="3">
+        <v>10</v>
+      </c>
+      <c r="F64" s="3">
+        <v>8</v>
+      </c>
+      <c r="G64" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>45974.320168252314</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="3">
+        <v>22</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="3">
+        <v>10</v>
+      </c>
+      <c r="F65" s="3">
+        <v>10</v>
+      </c>
+      <c r="G65" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>45974.480403437497</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="3">
+        <v>19</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>45974.480659317131</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="3">
+        <v>45</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="3">
+        <v>8</v>
+      </c>
+      <c r="F67" s="3">
+        <v>10</v>
+      </c>
+      <c r="G67" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>45974.482648622681</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="3">
+        <v>38</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="3">
+        <v>8</v>
+      </c>
+      <c r="F68" s="3">
+        <v>10</v>
+      </c>
+      <c r="G68" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>45974.4830353125</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="3">
+        <v>48</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="3">
+        <v>8</v>
+      </c>
+      <c r="F69" s="3">
+        <v>9</v>
+      </c>
+      <c r="G69" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>45974.484024166668</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="3">
+        <v>10</v>
+      </c>
+      <c r="F70" s="3">
+        <v>10</v>
+      </c>
+      <c r="G70" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>45974.484604861107</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="3">
+        <v>46</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="3">
+        <v>10</v>
+      </c>
+      <c r="F71" s="3">
+        <v>10</v>
+      </c>
+      <c r="G71" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>45974.48482302083</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="3">
+        <v>26</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
+        <v>10</v>
+      </c>
+      <c r="F72" s="3">
+        <v>10</v>
+      </c>
+      <c r="G72" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>45974.48540755787</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="3">
+        <v>44</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="3">
+        <v>10</v>
+      </c>
+      <c r="F73" s="3">
+        <v>10</v>
+      </c>
+      <c r="G73" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>45974.486483229164</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="3">
+        <v>48</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="3">
+        <v>8</v>
+      </c>
+      <c r="F74" s="3">
+        <v>8</v>
+      </c>
+      <c r="G74" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>45974.50489491898</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="3">
+        <v>42</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="3">
+        <v>9</v>
+      </c>
+      <c r="F75" s="3">
+        <v>10</v>
+      </c>
+      <c r="G75" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>45974.506304849536</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="3">
+        <v>21</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3">
+        <v>10</v>
+      </c>
+      <c r="F76" s="3">
+        <v>10</v>
+      </c>
+      <c r="G76" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>45974.510675381942</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="3">
+        <v>48</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="3">
+        <v>10</v>
+      </c>
+      <c r="F77" s="3">
+        <v>10</v>
+      </c>
+      <c r="G77" s="3">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/Respuestas_final.xlsx
+++ b/data/Respuestas_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="117">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -85,9 +85,6 @@
     <t>LUZ ELENA SANCHEZ RESTREPO</t>
   </si>
   <si>
-    <t>69 años</t>
-  </si>
-  <si>
     <t xml:space="preserve">Samuel Ramirez Grisales </t>
   </si>
   <si>
@@ -302,6 +299,69 @@
   </si>
   <si>
     <t xml:space="preserve">Milena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro </t>
+  </si>
+  <si>
+    <t>SARAY AMALIA RIOS MONTOYA</t>
+  </si>
+  <si>
+    <t>Catalina Mercedes Alzate Masso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María del Carmen Tabares Castro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Yeniber Arenas Castro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dairo Salazar </t>
+  </si>
+  <si>
+    <t>Nelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melany </t>
+  </si>
+  <si>
+    <t>Angelina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blas Laprea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidaly </t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nelson </t>
+  </si>
+  <si>
+    <t>María Yaneth Giraldo Soto</t>
+  </si>
+  <si>
+    <t>Jaime zuluaga</t>
+  </si>
+  <si>
+    <t>Majo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samantha Cardona </t>
+  </si>
+  <si>
+    <t>Juan David Correa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Fernando Castaño </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julián Valencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aida rios zuluaga </t>
   </si>
 </sst>
 </file>
@@ -432,7 +492,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G90" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G111" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Cómo te llamas?" id="2"/>
@@ -1033,8 +1093,8 @@
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>24</v>
+      <c r="C17" s="3">
+        <v>69.0</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
@@ -1054,7 +1114,7 @@
         <v>45965.80036177083</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3">
         <v>21.0</v>
@@ -1077,7 +1137,7 @@
         <v>45965.801563692134</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3">
         <v>26.0</v>
@@ -1100,7 +1160,7 @@
         <v>45965.80322769676</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5">
         <v>43.0</v>
@@ -1123,7 +1183,7 @@
         <v>45965.804519791665</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="5">
         <v>56.0</v>
@@ -1146,7 +1206,7 @@
         <v>45965.805694097224</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5">
         <v>66.0</v>
@@ -1169,7 +1229,7 @@
         <v>45965.80731768519</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5">
         <v>68.0</v>
@@ -1192,7 +1252,7 @@
         <v>45965.80769976852</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="5">
         <v>69.0</v>
@@ -1215,7 +1275,7 @@
         <v>45965.81020396991</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5">
         <v>49.0</v>
@@ -1238,7 +1298,7 @@
         <v>45965.81063180555</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="5">
         <v>25.0</v>
@@ -1261,7 +1321,7 @@
         <v>45965.81150780093</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="5">
         <v>63.0</v>
@@ -1284,7 +1344,7 @@
         <v>45965.812717361114</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="5">
         <v>44.0</v>
@@ -1307,7 +1367,7 @@
         <v>45965.81660219908</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5">
         <v>57.0</v>
@@ -1330,7 +1390,7 @@
         <v>45965.81825762731</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="5">
         <v>24.0</v>
@@ -1353,7 +1413,7 @@
         <v>45965.81848365741</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="5">
         <v>40.0</v>
@@ -1376,7 +1436,7 @@
         <v>45965.82055081018</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5">
         <v>48.0</v>
@@ -1399,7 +1459,7 @@
         <v>45965.82514752315</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="5">
         <v>25.0</v>
@@ -1422,7 +1482,7 @@
         <v>45965.82639474537</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="5">
         <v>50.0</v>
@@ -1445,7 +1505,7 @@
         <v>45965.83928729167</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="5">
         <v>62.0</v>
@@ -1468,7 +1528,7 @@
         <v>45965.83944413194</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="5">
         <v>71.0</v>
@@ -1491,7 +1551,7 @@
         <v>45965.84762163194</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="5">
         <v>74.0</v>
@@ -1514,7 +1574,7 @@
         <v>45965.85334480324</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="5">
         <v>24.0</v>
@@ -1537,7 +1597,7 @@
         <v>45965.85420258102</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="5">
         <v>24.0</v>
@@ -1560,7 +1620,7 @@
         <v>45965.856726087964</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="5">
         <v>49.0</v>
@@ -1583,7 +1643,7 @@
         <v>45965.85943783565</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="5">
         <v>25.0</v>
@@ -1606,7 +1666,7 @@
         <v>45965.86027938657</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="5">
         <v>73.0</v>
@@ -1629,7 +1689,7 @@
         <v>45965.86411890046</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="5">
         <v>56.0</v>
@@ -1652,7 +1712,7 @@
         <v>45965.86427193287</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="5">
         <v>71.0</v>
@@ -1675,7 +1735,7 @@
         <v>45965.86611973379</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="5">
         <v>52.0</v>
@@ -1698,7 +1758,7 @@
         <v>45965.867409513885</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="5">
         <v>70.0</v>
@@ -1721,7 +1781,7 @@
         <v>45965.87839509259</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="5">
         <v>63.0</v>
@@ -1744,7 +1804,7 @@
         <v>45965.89476329861</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="5">
         <v>64.0</v>
@@ -1767,7 +1827,7 @@
         <v>45965.902661527776</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="5">
         <v>35.0</v>
@@ -1790,7 +1850,7 @@
         <v>45965.90324216435</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="5">
         <v>21.0</v>
@@ -1813,7 +1873,7 @@
         <v>45965.90369167824</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="5">
         <v>24.0</v>
@@ -1836,7 +1896,7 @@
         <v>45965.921504259255</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="5">
         <v>60.0</v>
@@ -1859,7 +1919,7 @@
         <v>45965.92954846065</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="5">
         <v>68.0</v>
@@ -1882,7 +1942,7 @@
         <v>45966.32104241898</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="5">
         <v>63.0</v>
@@ -1905,7 +1965,7 @@
         <v>45966.35410039352</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="5">
         <v>40.0</v>
@@ -1928,7 +1988,7 @@
         <v>45966.55464289352</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" s="5">
         <v>70.0</v>
@@ -1951,7 +2011,7 @@
         <v>45966.729928773144</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="5">
         <v>76.0</v>
@@ -1974,7 +2034,7 @@
         <v>45966.90360092593</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="5">
         <v>65.0</v>
@@ -1997,7 +2057,7 @@
         <v>45966.98098212963</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="5">
         <v>40.0</v>
@@ -2020,7 +2080,7 @@
         <v>45968.15193800926</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="5">
         <v>56.0</v>
@@ -2043,13 +2103,13 @@
         <v>45974.11760946759</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="5">
         <v>19.0</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E61" s="5">
         <v>7.0</v>
@@ -2066,7 +2126,7 @@
         <v>45974.215739189814</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="5">
         <v>21.0</v>
@@ -2089,7 +2149,7 @@
         <v>45974.230108703705</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="5">
         <v>22.0</v>
@@ -2112,7 +2172,7 @@
         <v>45974.26868997685</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="5">
         <v>22.0</v>
@@ -2135,7 +2195,7 @@
         <v>45974.320168252314</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" s="5">
         <v>22.0</v>
@@ -2158,7 +2218,7 @@
         <v>45974.4804034375</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="5">
         <v>19.0</v>
@@ -2181,7 +2241,7 @@
         <v>45974.48065931713</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="5">
         <v>45.0</v>
@@ -2204,7 +2264,7 @@
         <v>45974.48264862268</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="5">
         <v>38.0</v>
@@ -2227,7 +2287,7 @@
         <v>45974.4830353125</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="5">
         <v>48.0</v>
@@ -2250,7 +2310,7 @@
         <v>45974.48402416667</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="5">
         <v>44.0</v>
@@ -2273,7 +2333,7 @@
         <v>45974.48460486111</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71" s="5">
         <v>46.0</v>
@@ -2296,7 +2356,7 @@
         <v>45974.48482302083</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72" s="5">
         <v>26.0</v>
@@ -2319,7 +2379,7 @@
         <v>45974.48540755787</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73" s="5">
         <v>44.0</v>
@@ -2342,7 +2402,7 @@
         <v>45974.486483229164</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="5">
         <v>48.0</v>
@@ -2365,7 +2425,7 @@
         <v>45974.50489491898</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" s="5">
         <v>42.0</v>
@@ -2388,7 +2448,7 @@
         <v>45974.506304849536</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" s="5">
         <v>21.0</v>
@@ -2411,7 +2471,7 @@
         <v>45974.51067538194</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C77" s="5">
         <v>48.0</v>
@@ -2434,7 +2494,7 @@
         <v>45974.51470347222</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" s="5">
         <v>52.0</v>
@@ -2457,7 +2517,7 @@
         <v>45974.53009871527</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C79" s="5">
         <v>23.0</v>
@@ -2480,7 +2540,7 @@
         <v>45974.65909724537</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C80" s="5">
         <v>21.0</v>
@@ -2503,7 +2563,7 @@
         <v>45974.669086423615</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C81" s="5">
         <v>44.0</v>
@@ -2526,7 +2586,7 @@
         <v>45974.670008877314</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C82" s="5">
         <v>50.0</v>
@@ -2549,7 +2609,7 @@
         <v>45974.67405065973</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83" s="5">
         <v>37.0</v>
@@ -2572,7 +2632,7 @@
         <v>45974.674628402776</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" s="5">
         <v>37.0</v>
@@ -2595,7 +2655,7 @@
         <v>45974.67734028935</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C85" s="5">
         <v>45.0</v>
@@ -2618,7 +2678,7 @@
         <v>45974.67823024305</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="5">
         <v>45.0</v>
@@ -2641,7 +2701,7 @@
         <v>45974.692679768516</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" s="5">
         <v>34.0</v>
@@ -2664,7 +2724,7 @@
         <v>45974.695513900464</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" s="5">
         <v>20.0</v>
@@ -2687,7 +2747,7 @@
         <v>45974.6958487963</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" s="5">
         <v>43.0</v>
@@ -2710,7 +2770,7 @@
         <v>45974.704320324076</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C90" s="5">
         <v>44.0</v>
@@ -2726,6 +2786,489 @@
       </c>
       <c r="G90" s="5">
         <v>10.0</v>
+      </c>
+    </row>
+    <row r="91" ht="22.5" customHeight="1">
+      <c r="A91" s="4">
+        <v>45974.71736028935</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F91" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G91" s="5">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="92" ht="22.5" customHeight="1">
+      <c r="A92" s="4">
+        <v>45974.723089293984</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="5">
+        <v>32.0</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="F92" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G92" s="5">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="93" ht="22.5" customHeight="1">
+      <c r="A93" s="4">
+        <v>45974.76520150463</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="5">
+        <v>44.0</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F93" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="G93" s="5">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="94" ht="22.5" customHeight="1">
+      <c r="A94" s="4">
+        <v>45974.76908126158</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="5">
+        <v>46.0</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="F94" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G94" s="5">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="95" ht="22.5" customHeight="1">
+      <c r="A95" s="4">
+        <v>45974.82222543981</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F95" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G95" s="5">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="96" ht="22.5" customHeight="1">
+      <c r="A96" s="4">
+        <v>45974.824128356486</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F96" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G96" s="5">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="97" ht="22.5" customHeight="1">
+      <c r="A97" s="4">
+        <v>45974.85524954861</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F97" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G97" s="5">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="98" ht="22.5" customHeight="1">
+      <c r="A98" s="4">
+        <v>45974.85543310185</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F98" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G98" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="99" ht="22.5" customHeight="1">
+      <c r="A99" s="4">
+        <v>45974.856553391204</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="F99" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G99" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="100" ht="22.5" customHeight="1">
+      <c r="A100" s="4">
+        <v>45974.889970000004</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="F100" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G100" s="5">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="101" ht="22.5" customHeight="1">
+      <c r="A101" s="4">
+        <v>45975.52848550926</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="5">
+        <v>37.0</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="F101" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G101" s="5">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="102" ht="22.5" customHeight="1">
+      <c r="A102" s="4">
+        <v>45975.69778851852</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F102" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G102" s="5">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="103" ht="22.5" customHeight="1">
+      <c r="A103" s="4">
+        <v>45976.53544515047</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="5">
+        <v>47.0</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="F103" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G103" s="5">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="104" ht="22.5" customHeight="1">
+      <c r="A104" s="4">
+        <v>45976.76500384259</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="5">
+        <v>41.0</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F104" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G104" s="5">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="105" ht="22.5" customHeight="1">
+      <c r="A105" s="4">
+        <v>45976.76778490741</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F105" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G105" s="5">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="106" ht="22.5" customHeight="1">
+      <c r="A106" s="4">
+        <v>45976.93930452546</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F106" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G106" s="5">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="107" ht="22.5" customHeight="1">
+      <c r="A107" s="4">
+        <v>45976.94116567129</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F107" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G107" s="5">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="108" ht="22.5" customHeight="1">
+      <c r="A108" s="4">
+        <v>45976.94783618055</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F108" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G108" s="5">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="109" ht="22.5" customHeight="1">
+      <c r="A109" s="4">
+        <v>45976.950943240736</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" s="5">
+        <v>52.0</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F109" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G109" s="5">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="110" ht="22.5" customHeight="1">
+      <c r="A110" s="4">
+        <v>45977.003348275466</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="F110" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G110" s="5">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="111" ht="22.5" customHeight="1">
+      <c r="A111" s="4">
+        <v>45977.55474556713</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="F111" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G111" s="5">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Respuestas_final.xlsx
+++ b/data/Respuestas_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="127">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -362,6 +362,36 @@
   </si>
   <si>
     <t xml:space="preserve">Aida rios zuluaga </t>
+  </si>
+  <si>
+    <t>Luisa Agudelo</t>
+  </si>
+  <si>
+    <t>Mariana Carreño</t>
+  </si>
+  <si>
+    <t>Jailyn Cardenas</t>
+  </si>
+  <si>
+    <t>Juan Esteban Garcia</t>
+  </si>
+  <si>
+    <t>Ana Lucia Pineda</t>
+  </si>
+  <si>
+    <t>Ana Ramirez</t>
+  </si>
+  <si>
+    <t>Juan David Moreno</t>
+  </si>
+  <si>
+    <t>Isabella Bade</t>
+  </si>
+  <si>
+    <t>John Bade</t>
+  </si>
+  <si>
+    <t>Luisa Bade</t>
   </si>
 </sst>
 </file>
@@ -492,7 +522,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G111" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G121" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Cómo te llamas?" id="2"/>
@@ -713,7 +743,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="18.88"/>
+    <col customWidth="1" min="1" max="1" width="18.88"/>
+    <col customWidth="1" min="2" max="2" width="28.25"/>
+    <col customWidth="1" min="3" max="3" width="18.88"/>
     <col customWidth="1" min="4" max="7" width="37.63"/>
     <col customWidth="1" min="8" max="13" width="18.88"/>
   </cols>
@@ -3271,6 +3303,236 @@
         <v>9.0</v>
       </c>
     </row>
+    <row r="112" ht="22.5" customHeight="1">
+      <c r="A112" s="4">
+        <v>45978.72315914352</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F112" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G112" s="5">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="113" ht="22.5" customHeight="1">
+      <c r="A113" s="4">
+        <v>45978.72339060185</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="F113" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="G113" s="5">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="114" ht="22.5" customHeight="1">
+      <c r="A114" s="4">
+        <v>45978.723674837966</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="F114" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="G114" s="5">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="115" ht="22.5" customHeight="1">
+      <c r="A115" s="4">
+        <v>45978.72421350694</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="F115" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G115" s="5">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="116" ht="22.5" customHeight="1">
+      <c r="A116" s="4">
+        <v>45978.72529638889</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="F116" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="G116" s="5">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="117" ht="22.5" customHeight="1">
+      <c r="A117" s="4">
+        <v>45978.72558216435</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="F117" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G117" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="118" ht="22.5" customHeight="1">
+      <c r="A118" s="4">
+        <v>45978.72611295139</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" s="5">
+        <v>38.0</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="F118" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="G118" s="5">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="119" ht="22.5" customHeight="1">
+      <c r="A119" s="4">
+        <v>45978.72844734954</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F119" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="G119" s="5">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="120" ht="22.5" customHeight="1">
+      <c r="A120" s="4">
+        <v>45978.73006622685</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" s="5">
+        <v>58.0</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F120" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G120" s="5">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="121" ht="22.5" customHeight="1">
+      <c r="A121" s="4">
+        <v>45978.73093042824</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="F121" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G121" s="5">
+        <v>7.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">
